--- a/guests.xlsx
+++ b/guests.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>Name</t>
   </si>
@@ -31,6 +31,12 @@
     <t>https://stevenfiona.viding.co?name=Lionika+and+partner</t>
   </si>
   <si>
+    <t>Testt</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Testt</t>
+  </si>
+  <si>
     <t>劉維詠 and partner</t>
   </si>
   <si>
@@ -43,6 +49,12 @@
     <t>https://stevenfiona.viding.co?name=%E8%91%89%E7%91%9E%E5%AB%BB+and+partner</t>
   </si>
   <si>
+    <t>Test blast</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Test+blast&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
     <t>Franky</t>
   </si>
   <si>
@@ -89,6 +101,756 @@
   </si>
   <si>
     <t>https://stevenfiona.viding.co?name=Zitta+and+partner</t>
+  </si>
+  <si>
+    <t>Meriske and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Meriske+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Julie and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Julie+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Michael and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Michael+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Teddy and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Teddy+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Andre&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Thalia</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Thalia&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Jeshika</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Jeshika&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Victoria&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Argan and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Argan+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Made</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Made&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Vety and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Vety+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Sekar and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Sekar+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Sb Hingkok and family</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Sb+Hingkok+and+family&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>dr Fili and family</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=dr+Fili+and+family&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>dr Siska and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=dr+Siska+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>dr Agnes and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=dr+Agnes+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Ivana</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Ivana&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Mutiara</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Mutiara&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Ayu</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Ayu&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Mona&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Elsa and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Elsa+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Gilang and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Gilang+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Kristin and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Kristin+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>dr Ricky and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=dr+Ricky+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>dr Veronica and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=dr+Veronica+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Ci Desvi</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Ci+Desvi&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Desi and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Desi+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Yeye and Indra</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Yeye+and+Indra&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Esterlita and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Esterlita+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Adele and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Adele+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Adelheid</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Adelheid&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Any&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Della</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Della&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Lia and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Lia+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>dr Adit</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=dr+Adit&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>dr Esther and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=dr+Esther+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>dr Fransiska and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=dr+Fransiska+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>dr Naomi and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=dr+Naomi+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>dr Patricia and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=dr+Patricia+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Floren</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Floren&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Gefryn</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Gefryn&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Ino</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Ino&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Margareta</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Margareta&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Meta and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Meta+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Novan</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Novan&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>pak Putra</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=pak+Putra&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Rina</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Rina&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Stefanus</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Stefanus&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Windi</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Windi&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Agus and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Agus+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Rifai and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Rifai+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Alfo and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Alfo+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Amirotu and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Amirotu+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Amrina and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Amrina+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Ayub</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Ayub&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Azi</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Azi&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Devi</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Devi&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Farika and Rofi</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Farika+and+Rofi&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Hafiz</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Hafiz&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Kiki and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Kiki+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Komang and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Komang+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Mery</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Mery&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Michelle and Yasin</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Michelle+and+Yasin&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Nurul</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Nurul&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Rizki A</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Rizki+A&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Astari</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Astari&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Rufina</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Rufina&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Selsa</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Selsa&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Sindi</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Sindi&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Teresia</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Teresia&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Vicky&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Yela and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Yela+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Yoga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Yoga&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Yuna</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Yuna&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Anggian Putra and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Anggian+Putra+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Desi (lab)</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Desi+%28lab%29&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Anggi</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Anggi&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Fian</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Fian&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Dae</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Dae&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Lenny</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Lenny&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Rahmi and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Rahmi+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Sri (lab)</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Sri+%28lab%29&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>dr Dewi and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=dr+Dewi+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Andry and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Andry+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Hendrick</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Hendrick&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Kuku Afang</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Kuku+Afang</t>
+  </si>
+  <si>
+    <t>Kuku Asin</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Kuku+Asin</t>
+  </si>
+  <si>
+    <t>Koko Fendy dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Koko+Fendy+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Koko Sandy dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Koko+Sandy+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Kuku Asim</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Kuku+Asim</t>
+  </si>
+  <si>
+    <t>Kuku Amei</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Kuku+Amei</t>
+  </si>
+  <si>
+    <t>Aling dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Aling+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Kuku Ayong dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Kuku+Ayong+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Koko Kenny dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Koko+Kenny+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Suksuk Ayu dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Suksuk+Ayu+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Suksuk Ayim dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Suksuk+Ayim+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Luk Suk Kung dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Luk+Suk+Kung+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Kou Suk Kung dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Kou+Suk+Kung+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Kuku Achin dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Kuku+Achin+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Kuku Acien dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Kuku+Acien+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Suksuk Asiang dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Suksuk+Asiang+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Suksuk Achi dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Suksuk+Achi+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Suksuk Ache dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Suksuk+Ache+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Kuku Afong dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Kuku+Afong+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Kuku Akheng dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Kuku+Akheng+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Suksuk Achien dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Suksuk+Achien+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Kuku Akem dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Kuku+Akem+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Phopho, Iie Akun, Iie Akiau</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Phopho%2C+Iie+Akun%2C+Iie+Akiau</t>
+  </si>
+  <si>
+    <t>Jiujiu Atoy dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Jiujiu+Atoy+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Iie Athing dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Iie+Athing+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Ku pho Fung Ik Mei dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Ku+pho+Fung+Ik+Mei+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Tua kim Wu Ik Ing dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Tua+kim+Wu+Ik+Ing+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Jiu kong Khwuang Sui Yu dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Jiu+kong+Khwuang+Sui+Yu+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Jiu kong Khwuang Sui Cen dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Jiu+kong+Khwuang+Sui+Cen+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Ie pho 鄺和琴和家</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Ie+pho+%E9%84%BA%E5%92%8C%E7%90%B4%E5%92%8C%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>Bpk. Darmin Ramli dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Bpk.+Darmin+Ramli+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Bpk. Tony Mulyawan dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Bpk.+Tony+Mulyawan+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Bpk. David Mulyawan dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Bpk.+David+Mulyawan+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Bpk. Jonren Ho dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Bpk.+Jonren+Ho+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Ibu Desi Hartati dan keluarga</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Ibu+Desi+Hartati+dan+keluarga</t>
+  </si>
+  <si>
+    <t>Papa dan mama Felisa</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Papa+dan+mama+Felisa</t>
+  </si>
+  <si>
+    <t>dr Boby and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=dr+Boby+and+partner&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Bu Monica</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Bu+Monica&amp;event=Wedding+Reception&amp;rsvp=1</t>
+  </si>
+  <si>
+    <t>Dohar and partner</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=Dohar+and+partner</t>
+  </si>
+  <si>
+    <t>pak Toton</t>
+  </si>
+  <si>
+    <t>https://stevenfiona.viding.co?name=pak+Toton&amp;event=Wedding+Reception&amp;rsvp=1</t>
   </si>
 </sst>
 </file>
@@ -464,6 +1226,1022 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
